--- a/Proactive Attrition Management/LogisticregR.xlsx
+++ b/Proactive Attrition Management/LogisticregR.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Business Analytics\Case studies\Proactive-Attrition-Management-Logistic Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Business Analytics\Case studies\Proactive-Attrition-Management-Logistic Regression\Logistic Reg in R\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Outlier Treatment" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="222">
   <si>
     <t>Var_Type</t>
   </si>
@@ -451,129 +451,12 @@
     <t xml:space="preserve">    Min       1Q   Median       3Q      Max  </t>
   </si>
   <si>
-    <t xml:space="preserve">-1.9338  -1.1384  -0.6806   1.1363   2.0282  </t>
-  </si>
-  <si>
     <t>Coefficients:</t>
   </si>
   <si>
     <t xml:space="preserve">              Estimate Std. Error z value Pr(&gt;|z|)    </t>
   </si>
   <si>
-    <t>(Intercept) -5.055e-01  1.292e-01  -3.912 9.15e-05 ***</t>
-  </si>
-  <si>
-    <t>REVENUE      1.550e-01  1.935e-02   8.011 1.14e-15 ***</t>
-  </si>
-  <si>
-    <t>MOU         -3.704e-02  3.080e-03 -12.027  &lt; 2e-16 ***</t>
-  </si>
-  <si>
-    <t>RECCHRGE    -1.869e-02  4.043e-03  -4.622 3.79e-06 ***</t>
-  </si>
-  <si>
-    <t>OVERAGE      1.027e-01  1.203e-02   8.537  &lt; 2e-16 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROAM         1.738e-01  7.875e-02   2.207 0.027287 *  </t>
-  </si>
-  <si>
-    <t>CHANGEM     -5.039e-04  5.666e-05  -8.893  &lt; 2e-16 ***</t>
-  </si>
-  <si>
-    <t>CHANGER      1.942e-03  4.151e-04   4.679 2.88e-06 ***</t>
-  </si>
-  <si>
-    <t>DROPVCE      1.845e-01  2.111e-02   8.740  &lt; 2e-16 ***</t>
-  </si>
-  <si>
-    <t>BLCKVCE      1.113e-01  2.593e-02   4.292 1.77e-05 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNANSVCE     7.377e-03  1.039e-02   0.710 0.477720    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUSTCARE    -8.159e-02  4.237e-02  -1.925 0.054177 .  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">THREEWAY    -3.376e-02  1.811e-02  -1.864 0.062295 .  </t>
-  </si>
-  <si>
-    <t>MOUREC       3.383e-02  7.962e-03   4.249 2.15e-05 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUTCALLS     2.543e-02  1.288e-02   1.974 0.048394 *  </t>
-  </si>
-  <si>
-    <t>INCALLS     -1.611e-01  2.268e-02  -7.105 1.20e-12 ***</t>
-  </si>
-  <si>
-    <t>PEAKVCE     -5.495e-02  6.834e-03  -8.041 8.90e-16 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALLWAIT     1.423e-01  5.182e-02   2.745 0.006042 ** </t>
-  </si>
-  <si>
-    <t>MONTHS      -1.531e-01  4.541e-02  -3.373 0.000745 ***</t>
-  </si>
-  <si>
-    <t>UNIQSUBS     9.981e-02  1.339e-02   7.456 8.89e-14 ***</t>
-  </si>
-  <si>
-    <t>EQPDAYS      2.104e-02  1.223e-03  17.200  &lt; 2e-16 ***</t>
-  </si>
-  <si>
-    <t>AGE1        -1.045e-02  2.505e-03  -4.173 3.00e-05 ***</t>
-  </si>
-  <si>
-    <t>CHILDREN1    1.083e-01  2.675e-02   4.047 5.19e-05 ***</t>
-  </si>
-  <si>
-    <t>CREDITAA1    1.103e-01  2.984e-02   3.695 0.000220 ***</t>
-  </si>
-  <si>
-    <t>CREDITB1     1.165e-01  3.432e-02   3.394 0.000688 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CREDITC1    -7.977e-02  4.105e-02  -1.943 0.052010 .  </t>
-  </si>
-  <si>
-    <t>CREDITDE1   -2.491e-01  4.048e-02  -6.154 7.58e-10 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIZMUB1    -6.465e-02  2.259e-02  -2.862 0.004205 ** </t>
-  </si>
-  <si>
-    <t>REFURB1      2.621e-01  3.164e-02   8.286  &lt; 2e-16 ***</t>
-  </si>
-  <si>
-    <t>WEBCAP1     -1.738e-01  3.710e-02  -4.685 2.80e-06 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCCHMKR1     2.924e-01  1.887e-01   1.549 0.121327    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARRYUN1     7.189e-02  2.945e-02   2.441 0.014645 *  </t>
-  </si>
-  <si>
-    <t>MAILRES1    -1.471e-01  2.635e-02  -5.582 2.37e-08 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CREDITCD1    6.849e-02  3.721e-02   1.840 0.065714 .  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEWCELLY1   -8.132e-02  2.649e-02  -3.070 0.002143 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">INCOME      -1.553e-02  7.319e-03  -2.122 0.033876 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CREDITAD    -1.923e-01  5.972e-02  -3.219 0.001285 ** </t>
-  </si>
-  <si>
-    <t>SETPRC       7.908e-02  1.264e-02   6.256 3.94e-10 ***</t>
-  </si>
-  <si>
     <t>---</t>
   </si>
   <si>
@@ -586,15 +469,6 @@
     <t xml:space="preserve">    Null deviance: 53983  on 38940  degrees of freedom</t>
   </si>
   <si>
-    <t>Residual deviance: 52254  on 38903  degrees of freedom</t>
-  </si>
-  <si>
-    <t>AIC: 52330</t>
-  </si>
-  <si>
-    <t>Number of Fisher Scoring iterations: 4</t>
-  </si>
-  <si>
     <t>Validation Sample</t>
   </si>
   <si>
@@ -650,13 +524,181 @@
   </si>
   <si>
     <t>Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glm(formula = CHURN ~ REVENUE + MOU + RECCHRGE + OVERAGE + ROAM + </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CHANGEM + CHANGER + DROPVCE + BLCKVCE + UNANSVCE + CUSTCARE + </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MOUREC + OUTCALLS + INCALLS + PEAKVCE + CALLWAIT + MONTHS + </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UNIQSUBS + PHONES + EQPDAYS + AGE1 + CHILDREN + CREDITAA + </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CREDITB + CREDITC + CREDITDE + PRIZMUB + REFURB + WEBCAP + </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MARRYUN + MAILRES + NEWCELLY + CREDITAD, family = binomial(logit), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    data = training)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.9339  -1.1391  -0.6834   1.1367   1.9538  </t>
+  </si>
+  <si>
+    <t>(Intercept) -1.519e+00  1.873e-01  -8.114 4.90e-16 ***</t>
+  </si>
+  <si>
+    <t>REVENUE      1.552e-01  1.933e-02   8.027 9.98e-16 ***</t>
+  </si>
+  <si>
+    <t>MOU         -3.741e-02  3.076e-03 -12.160  &lt; 2e-16 ***</t>
+  </si>
+  <si>
+    <t>RECCHRGE    -1.905e-02  4.040e-03  -4.714 2.43e-06 ***</t>
+  </si>
+  <si>
+    <t>OVERAGE      1.023e-01  1.203e-02   8.506  &lt; 2e-16 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROAM         1.730e-01  7.870e-02   2.199 0.027898 *  </t>
+  </si>
+  <si>
+    <t>CHANGEM     -5.016e-04  5.663e-05  -8.858  &lt; 2e-16 ***</t>
+  </si>
+  <si>
+    <t>CHANGER      1.944e-03  4.147e-04   4.687 2.78e-06 ***</t>
+  </si>
+  <si>
+    <t>DROPVCE      1.809e-01  2.104e-02   8.598  &lt; 2e-16 ***</t>
+  </si>
+  <si>
+    <t>BLCKVCE      1.075e-01  2.586e-02   4.157 3.22e-05 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNANSVCE     7.550e-03  1.038e-02   0.728 0.466772    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUSTCARE    -8.461e-02  4.221e-02  -2.005 0.044997 *  </t>
+  </si>
+  <si>
+    <t>MOUREC       3.528e-02  7.951e-03   4.437 9.11e-06 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTCALLS     2.541e-02  1.288e-02   1.973 0.048450 *  </t>
+  </si>
+  <si>
+    <t>INCALLS     -1.606e-01  2.267e-02  -7.084 1.40e-12 ***</t>
+  </si>
+  <si>
+    <t>PEAKVCE     -5.616e-02  6.825e-03  -8.229  &lt; 2e-16 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALLWAIT     1.406e-01  5.180e-02   2.715 0.006634 ** </t>
+  </si>
+  <si>
+    <t>MONTHS      -1.883e-01  4.940e-02  -3.811 0.000138 ***</t>
+  </si>
+  <si>
+    <t>UNIQSUBS     9.753e-02  1.338e-02   7.290 3.09e-13 ***</t>
+  </si>
+  <si>
+    <t>PHONES       3.019e+00  4.927e-01   6.128 8.90e-10 ***</t>
+  </si>
+  <si>
+    <t>EQPDAYS      2.171e-02  1.306e-03  16.624  &lt; 2e-16 ***</t>
+  </si>
+  <si>
+    <t>AGE1        -1.066e-02  2.105e-03  -5.063 4.13e-07 ***</t>
+  </si>
+  <si>
+    <t>CHILDREN1    1.094e-01  2.668e-02   4.101 4.11e-05 ***</t>
+  </si>
+  <si>
+    <t>CREDITAA1    1.158e-01  2.983e-02   3.882 0.000104 ***</t>
+  </si>
+  <si>
+    <t>CREDITB1     1.221e-01  3.427e-02   3.563 0.000367 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREDITC1    -7.482e-02  4.101e-02  -1.824 0.068077 .  </t>
+  </si>
+  <si>
+    <t>CREDITDE1   -2.473e-01  4.044e-02  -6.114 9.71e-10 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIZMUB1    -6.809e-02  2.244e-02  -3.034 0.002417 ** </t>
+  </si>
+  <si>
+    <t>REFURB1      2.641e-01  3.165e-02   8.346  &lt; 2e-16 ***</t>
+  </si>
+  <si>
+    <t>WEBCAP1     -1.754e-01  3.709e-02  -4.727 2.27e-06 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARRYUN1     7.244e-02  2.820e-02   2.569 0.010214 *  </t>
+  </si>
+  <si>
+    <t>MAILRES1    -1.454e-01  2.623e-02  -5.545 2.93e-08 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEWCELLY1   -8.117e-02  2.648e-02  -3.065 0.002178 ** </t>
+  </si>
+  <si>
+    <t>CREDITAD    -2.050e-01  5.972e-02  -3.433 0.000597 ***</t>
+  </si>
+  <si>
+    <t>$concordance</t>
+  </si>
+  <si>
+    <t>[1] 0.6234148</t>
+  </si>
+  <si>
+    <t>$num_concordant</t>
+  </si>
+  <si>
+    <t>[1] 12093</t>
+  </si>
+  <si>
+    <t>$discordance</t>
+  </si>
+  <si>
+    <t>[1] 0.3765852</t>
+  </si>
+  <si>
+    <t>$num_discordant</t>
+  </si>
+  <si>
+    <t>[1] 7305</t>
+  </si>
+  <si>
+    <t>$tie_rate</t>
+  </si>
+  <si>
+    <t>[1] 0</t>
+  </si>
+  <si>
+    <t>$num_tied</t>
+  </si>
+  <si>
+    <t>$somers_D</t>
+  </si>
+  <si>
+    <t>[1] 0.2468296</t>
+  </si>
+  <si>
+    <t>$Gamma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -792,17 +834,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="11"/>
@@ -826,8 +857,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="44">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1057,12 +1094,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF2C2828"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1250,7 +1281,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1263,41 +1294,38 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="33" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="42" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="42" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="41" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="41" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1418,7 +1446,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1622,11 +1649,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="861263504"/>
-        <c:axId val="861264048"/>
+        <c:axId val="502480976"/>
+        <c:axId val="1138111792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="861263504"/>
+        <c:axId val="502480976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1668,7 +1695,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="861264048"/>
+        <c:crossAx val="1138111792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1676,7 +1703,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="861264048"/>
+        <c:axId val="1138111792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1727,7 +1754,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="861263504"/>
+        <c:crossAx val="502480976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1741,7 +1768,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2035,11 +2061,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="861262960"/>
-        <c:axId val="861265680"/>
+        <c:axId val="1143678528"/>
+        <c:axId val="1143684512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="861262960"/>
+        <c:axId val="1143678528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2081,7 +2107,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="861265680"/>
+        <c:crossAx val="1143684512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2089,7 +2115,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="861265680"/>
+        <c:axId val="1143684512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2140,7 +2166,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="861262960"/>
+        <c:crossAx val="1143678528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2154,7 +2180,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2266,7 +2291,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2445,11 +2469,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="77481824"/>
-        <c:axId val="77478016"/>
+        <c:axId val="1143686688"/>
+        <c:axId val="1143681248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77481824"/>
+        <c:axId val="1143686688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2491,7 +2515,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77478016"/>
+        <c:crossAx val="1143681248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2499,7 +2523,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77478016"/>
+        <c:axId val="1143681248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2550,7 +2574,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77481824"/>
+        <c:crossAx val="1143686688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2564,7 +2588,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14247,274 +14270,331 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A54"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="O7" s="28"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
+      <c r="O8" s="27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="O9" s="27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="O10" s="28"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="O11" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="28"/>
+      <c r="O12" s="27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="O13" s="28"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="O14" s="27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="O16" s="28"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="O17" s="27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="O18" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="O19" s="28"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="O20" s="27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="O21" s="27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="O22" s="28"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="O23" s="27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="O24" s="27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="27" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="28"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="27" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="28"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="27" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="15"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -14528,7 +14608,7 @@
   <dimension ref="C4:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D14"/>
+      <selection activeCell="O5" sqref="O5:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14573,13 +14653,13 @@
         <v>3895</v>
       </c>
       <c r="E5">
-        <v>0.63172745339960601</v>
+        <v>0.63073995424222495</v>
       </c>
       <c r="F5">
-        <v>0.84585716951283896</v>
+        <v>0.84586173924614505</v>
       </c>
       <c r="G5">
-        <v>2568</v>
+        <v>2589</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -14588,10 +14668,10 @@
         <v>3037</v>
       </c>
       <c r="M5">
-        <v>0.61216790853020098</v>
+        <v>0.61084692899442194</v>
       </c>
       <c r="N5">
-        <v>0.84206239312211495</v>
+        <v>0.84354759655260303</v>
       </c>
       <c r="O5">
         <v>113</v>
@@ -14605,13 +14685,13 @@
         <v>3894</v>
       </c>
       <c r="E6">
-        <v>0.58890868603402902</v>
+        <v>0.58828698834711401</v>
       </c>
       <c r="F6">
-        <v>0.63172446896876899</v>
+        <v>0.63073206243118896</v>
       </c>
       <c r="G6">
-        <v>2405</v>
+        <v>2363</v>
       </c>
       <c r="K6">
         <v>9</v>
@@ -14620,13 +14700,13 @@
         <v>3037</v>
       </c>
       <c r="M6">
-        <v>0.56642830208985695</v>
+        <v>0.56603063813870502</v>
       </c>
       <c r="N6">
-        <v>0.61213778396712804</v>
+        <v>0.61083648969222804</v>
       </c>
       <c r="O6">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.3">
@@ -14637,13 +14717,13 @@
         <v>3894</v>
       </c>
       <c r="E7">
-        <v>0.55627162589366497</v>
+        <v>0.55608011473531804</v>
       </c>
       <c r="F7">
-        <v>0.58889930566909598</v>
+        <v>0.588284704618661</v>
       </c>
       <c r="G7">
-        <v>2258</v>
+        <v>2246</v>
       </c>
       <c r="K7">
         <v>8</v>
@@ -14652,13 +14732,13 @@
         <v>3037</v>
       </c>
       <c r="M7">
-        <v>0.53297780802434702</v>
+        <v>0.53332258520821696</v>
       </c>
       <c r="N7">
-        <v>0.56642469861580402</v>
+        <v>0.56602666474991803</v>
       </c>
       <c r="O7">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.3">
@@ -14669,13 +14749,13 @@
         <v>3894</v>
       </c>
       <c r="E8">
-        <v>0.52813622418622397</v>
+        <v>0.52782743267744603</v>
       </c>
       <c r="F8">
-        <v>0.55626642362054801</v>
+        <v>0.55605905971403002</v>
       </c>
       <c r="G8">
-        <v>2124</v>
+        <v>2148</v>
       </c>
       <c r="K8">
         <v>7</v>
@@ -14684,13 +14764,13 @@
         <v>3036</v>
       </c>
       <c r="M8">
-        <v>0.50434185834585099</v>
+        <v>0.50389764706698303</v>
       </c>
       <c r="N8">
-        <v>0.53297082228654302</v>
+        <v>0.53329761907567896</v>
       </c>
       <c r="O8">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.3">
@@ -14701,13 +14781,13 @@
         <v>3894</v>
       </c>
       <c r="E9">
-        <v>0.50039021615525803</v>
+        <v>0.50048566015568996</v>
       </c>
       <c r="F9">
-        <v>0.52812888518119305</v>
+        <v>0.52782332185334502</v>
       </c>
       <c r="G9">
-        <v>2053</v>
+        <v>2037</v>
       </c>
       <c r="K9">
         <v>6</v>
@@ -14716,13 +14796,13 @@
         <v>3037</v>
       </c>
       <c r="M9">
-        <v>0.47686179643228899</v>
+        <v>0.47705452216188199</v>
       </c>
       <c r="N9">
-        <v>0.50433730895002404</v>
+        <v>0.503890708481185</v>
       </c>
       <c r="O9">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.3">
@@ -14733,13 +14813,13 @@
         <v>3894</v>
       </c>
       <c r="E10">
-        <v>0.473196259177182</v>
+        <v>0.47299935241810998</v>
       </c>
       <c r="F10">
-        <v>0.50038951068867299</v>
+        <v>0.50047920943854596</v>
       </c>
       <c r="G10">
-        <v>1933</v>
+        <v>1949</v>
       </c>
       <c r="K10">
         <v>5</v>
@@ -14748,13 +14828,13 @@
         <v>3037</v>
       </c>
       <c r="M10">
-        <v>0.45023241682586301</v>
+        <v>0.45025902456255001</v>
       </c>
       <c r="N10">
-        <v>0.47684200710716002</v>
+        <v>0.47705326523445202</v>
       </c>
       <c r="O10">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.3">
@@ -14765,13 +14845,13 @@
         <v>3894</v>
       </c>
       <c r="E11">
-        <v>0.443553539905366</v>
+        <v>0.44403423403956599</v>
       </c>
       <c r="F11">
-        <v>0.47317221828393502</v>
+        <v>0.47299078445592901</v>
       </c>
       <c r="G11">
-        <v>1802</v>
+        <v>1775</v>
       </c>
       <c r="K11">
         <v>4</v>
@@ -14780,13 +14860,13 @@
         <v>3036</v>
       </c>
       <c r="M11">
-        <v>0.42215165813449601</v>
+        <v>0.42255926518304499</v>
       </c>
       <c r="N11">
-        <v>0.450221413517439</v>
+        <v>0.45024966782933401</v>
       </c>
       <c r="O11">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.3">
@@ -14797,13 +14877,13 @@
         <v>3894</v>
       </c>
       <c r="E12">
-        <v>0.40909218656280699</v>
+        <v>0.40917219624472301</v>
       </c>
       <c r="F12">
-        <v>0.44354062840331498</v>
+        <v>0.444026294656788</v>
       </c>
       <c r="G12">
-        <v>1622</v>
+        <v>1638</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -14812,13 +14892,13 @@
         <v>3037</v>
       </c>
       <c r="M12">
-        <v>0.38894748958841302</v>
+        <v>0.38941783151326897</v>
       </c>
       <c r="N12">
-        <v>0.42213507464830102</v>
+        <v>0.42253449082906602</v>
       </c>
       <c r="O12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.3">
@@ -14829,13 +14909,13 @@
         <v>3894</v>
       </c>
       <c r="E13">
-        <v>0.36132715629597001</v>
+        <v>0.361699988913602</v>
       </c>
       <c r="F13">
-        <v>0.40908877691580797</v>
+        <v>0.409168543878769</v>
       </c>
       <c r="G13">
-        <v>1439</v>
+        <v>1443</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -14844,13 +14924,13 @@
         <v>3037</v>
       </c>
       <c r="M13">
-        <v>0.34367858035877902</v>
+        <v>0.34419221307221998</v>
       </c>
       <c r="N13">
-        <v>0.388916888135456</v>
+        <v>0.389408761136463</v>
       </c>
       <c r="O13">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.3">
@@ -14861,13 +14941,13 @@
         <v>3894</v>
       </c>
       <c r="E14">
-        <v>6.8054336891944997E-2</v>
+        <v>7.2852899293618295E-2</v>
       </c>
       <c r="F14">
-        <v>0.36130901562825801</v>
+        <v>0.361681265445706</v>
       </c>
       <c r="G14">
-        <v>1194</v>
+        <v>1210</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -14876,10 +14956,10 @@
         <v>3037</v>
       </c>
       <c r="M14">
-        <v>4.5059610239235902E-2</v>
+        <v>4.89413555549809E-2</v>
       </c>
       <c r="N14">
-        <v>0.343677067503454</v>
+        <v>0.34416599547725502</v>
       </c>
       <c r="O14">
         <v>20</v>
@@ -14894,87 +14974,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+      <c r="A1" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
     </row>
     <row r="3" spans="1:17" ht="36.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>205</v>
+      <c r="A3" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -14982,10 +15062,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="3">
-        <v>0.61216790853020098</v>
+        <v>0.61084692899442194</v>
       </c>
       <c r="C4" s="3">
-        <v>0.84206239312211495</v>
+        <v>0.84354759655260303</v>
       </c>
       <c r="D4" s="3">
         <v>113</v>
@@ -14997,34 +15077,34 @@
       <c r="F4" s="3">
         <v>3037</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="19">
         <f>D4/F4</f>
         <v>3.7207770826473495E-2</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="19">
         <f>D4/$D$14</f>
         <v>0.19283276450511946</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="19">
         <f>SUM(H4)</f>
         <v>0.19283276450511946</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="19">
         <f>E4/$E$14</f>
         <v>9.8180108790544618E-2</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="19">
         <f>SUM(J4)</f>
         <v>9.8180108790544618E-2</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="20">
         <f>I4-K4</f>
         <v>9.4652655714574846E-2</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="16">
         <v>0.1</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="17">
         <f>I4/O4</f>
         <v>1.9283276450511946</v>
       </c>
@@ -15037,51 +15117,51 @@
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>0.56642830208985695</v>
+        <v>0.56603063813870502</v>
       </c>
       <c r="C5" s="3">
-        <v>0.61213778396712804</v>
+        <v>0.61083648969222804</v>
       </c>
       <c r="D5" s="3">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" ref="E5:E13" si="0">F5-D5</f>
-        <v>2946</v>
+        <v>2952</v>
       </c>
       <c r="F5" s="3">
         <v>3037</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="19">
         <f t="shared" ref="G5:G13" si="1">D5/F5</f>
-        <v>2.9963780046098124E-2</v>
-      </c>
-      <c r="H5" s="24">
+        <v>2.7988146196904842E-2</v>
+      </c>
+      <c r="H5" s="19">
         <f t="shared" ref="H5:H13" si="2">D5/$D$14</f>
-        <v>0.1552901023890785</v>
-      </c>
-      <c r="I5" s="24">
+        <v>0.14505119453924914</v>
+      </c>
+      <c r="I5" s="19">
         <f>SUM(H4:H5)</f>
-        <v>0.34812286689419797</v>
-      </c>
-      <c r="J5" s="24">
+        <v>0.33788395904436863</v>
+      </c>
+      <c r="J5" s="19">
         <f t="shared" ref="J5:J13" si="3">E5/$E$14</f>
-        <v>9.8918810019474848E-2</v>
-      </c>
-      <c r="K5" s="24">
+        <v>9.9120273991001276E-2</v>
+      </c>
+      <c r="K5" s="19">
         <f>SUM(J4:J5)</f>
-        <v>0.19709891881001945</v>
-      </c>
-      <c r="L5" s="25">
+        <v>0.19730038278154588</v>
+      </c>
+      <c r="L5" s="20">
         <f t="shared" ref="L5:L13" si="4">I5-K5</f>
-        <v>0.15102394808417852</v>
-      </c>
-      <c r="O5" s="20">
+        <v>0.14058357626282275</v>
+      </c>
+      <c r="O5" s="16">
         <v>0.2</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="18">
         <f t="shared" ref="P5:P13" si="5">I5/O5</f>
-        <v>1.7406143344709897</v>
+        <v>1.689419795221843</v>
       </c>
       <c r="Q5" s="3">
         <v>1</v>
@@ -15092,51 +15172,51 @@
         <v>8</v>
       </c>
       <c r="B6" s="3">
-        <v>0.53297780802434702</v>
+        <v>0.53332258520821696</v>
       </c>
       <c r="C6" s="3">
-        <v>0.56642469861580402</v>
+        <v>0.56602666474991803</v>
       </c>
       <c r="D6" s="3">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="F6" s="3">
         <v>3037</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="19">
         <f t="shared" si="1"/>
-        <v>2.5024695423114918E-2</v>
-      </c>
-      <c r="H6" s="24">
+        <v>2.5353967731313796E-2</v>
+      </c>
+      <c r="H6" s="19">
         <f t="shared" si="2"/>
-        <v>0.12969283276450511</v>
-      </c>
-      <c r="I6" s="24">
+        <v>0.13139931740614336</v>
+      </c>
+      <c r="I6" s="19">
         <f>SUM(H4:H6)</f>
-        <v>0.47781569965870307</v>
-      </c>
-      <c r="J6" s="24">
+        <v>0.46928327645051199</v>
+      </c>
+      <c r="J6" s="19">
         <f t="shared" si="3"/>
-        <v>9.9422469948290917E-2</v>
-      </c>
-      <c r="K6" s="24">
+        <v>9.938889261970317E-2</v>
+      </c>
+      <c r="K6" s="19">
         <f>SUM(J4:J6)</f>
-        <v>0.29652138875831036</v>
-      </c>
-      <c r="L6" s="25">
+        <v>0.29668927540124906</v>
+      </c>
+      <c r="L6" s="20">
         <f t="shared" si="4"/>
-        <v>0.18129431090039272</v>
-      </c>
-      <c r="O6" s="20">
+        <v>0.17259400104926292</v>
+      </c>
+      <c r="O6" s="16">
         <v>0.3</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="18">
         <f t="shared" si="5"/>
-        <v>1.5927189988623436</v>
+        <v>1.5642775881683733</v>
       </c>
       <c r="Q6" s="3">
         <v>1</v>
@@ -15147,51 +15227,51 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>0.50434185834585099</v>
+        <v>0.50389764706698303</v>
       </c>
       <c r="C7" s="4">
-        <v>0.53297082228654302</v>
+        <v>0.53329761907567896</v>
       </c>
       <c r="D7" s="4">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="F7" s="4">
         <v>3036</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="21">
         <f t="shared" si="1"/>
-        <v>2.0421607378129116E-2</v>
-      </c>
-      <c r="H7" s="26">
+        <v>2.1409749670619236E-2</v>
+      </c>
+      <c r="H7" s="21">
         <f t="shared" si="2"/>
-        <v>0.10580204778156997</v>
-      </c>
-      <c r="I7" s="26">
+        <v>0.11092150170648464</v>
+      </c>
+      <c r="I7" s="21">
         <f>SUM(H4:H7)</f>
-        <v>0.58361774744027306</v>
-      </c>
-      <c r="J7" s="26">
+        <v>0.58020477815699667</v>
+      </c>
+      <c r="J7" s="21">
         <f t="shared" si="3"/>
-        <v>9.9858975219931506E-2</v>
-      </c>
-      <c r="K7" s="26">
+        <v>9.9758243234168292E-2</v>
+      </c>
+      <c r="K7" s="21">
         <f>SUM(J4:J7)</f>
-        <v>0.39638036397824183</v>
-      </c>
-      <c r="L7" s="27">
+        <v>0.39644751863541738</v>
+      </c>
+      <c r="L7" s="22">
         <f t="shared" si="4"/>
-        <v>0.18723738346203123</v>
-      </c>
-      <c r="O7" s="20">
+        <v>0.18375725952157929</v>
+      </c>
+      <c r="O7" s="16">
         <v>0.4</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="18">
         <f t="shared" si="5"/>
-        <v>1.4590443686006827</v>
+        <v>1.4505119453924915</v>
       </c>
       <c r="Q7" s="3">
         <v>1</v>
@@ -15202,51 +15282,51 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>0.47686179643228899</v>
+        <v>0.47705452216188199</v>
       </c>
       <c r="C8" s="3">
-        <v>0.50433730895002404</v>
+        <v>0.503890708481185</v>
       </c>
       <c r="D8" s="3">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>2985</v>
+        <v>2978</v>
       </c>
       <c r="F8" s="3">
         <v>3037</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="19">
         <f t="shared" si="1"/>
-        <v>1.7122160026341784E-2</v>
-      </c>
-      <c r="H8" s="24">
+        <v>1.9427066183733948E-2</v>
+      </c>
+      <c r="H8" s="19">
         <f t="shared" si="2"/>
-        <v>8.8737201365187715E-2</v>
-      </c>
-      <c r="I8" s="24">
+        <v>0.10068259385665529</v>
+      </c>
+      <c r="I8" s="19">
         <f>SUM(H4:H8)</f>
-        <v>0.67235494880546076</v>
-      </c>
-      <c r="J8" s="24">
+        <v>0.6808873720136519</v>
+      </c>
+      <c r="J8" s="19">
         <f t="shared" si="3"/>
-        <v>0.10022832583439661</v>
-      </c>
-      <c r="K8" s="24">
+        <v>9.9993284534282453E-2</v>
+      </c>
+      <c r="K8" s="19">
         <f>SUM(J4:J8)</f>
-        <v>0.49660868981263845</v>
-      </c>
-      <c r="L8" s="25">
+        <v>0.49644080316969985</v>
+      </c>
+      <c r="L8" s="20">
         <f t="shared" si="4"/>
-        <v>0.17574625899282231</v>
-      </c>
-      <c r="O8" s="20">
+        <v>0.18444656884395205</v>
+      </c>
+      <c r="O8" s="16">
         <v>0.5</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="18">
         <f t="shared" si="5"/>
-        <v>1.3447098976109215</v>
+        <v>1.3617747440273038</v>
       </c>
       <c r="Q8" s="3">
         <v>1</v>
@@ -15257,51 +15337,51 @@
         <v>5</v>
       </c>
       <c r="B9" s="3">
-        <v>0.45023241682586301</v>
+        <v>0.45025902456255001</v>
       </c>
       <c r="C9" s="3">
-        <v>0.47684200710716002</v>
+        <v>0.47705326523445202</v>
       </c>
       <c r="D9" s="3">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>2978</v>
+        <v>2990</v>
       </c>
       <c r="F9" s="3">
         <v>3037</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="19">
         <f t="shared" si="1"/>
-        <v>1.9427066183733948E-2</v>
-      </c>
-      <c r="H9" s="24">
+        <v>1.5475798485347383E-2</v>
+      </c>
+      <c r="H9" s="19">
         <f t="shared" si="2"/>
-        <v>0.10068259385665529</v>
-      </c>
-      <c r="I9" s="24">
+        <v>8.0204778156996587E-2</v>
+      </c>
+      <c r="I9" s="19">
         <f>SUM(H4:H9)</f>
-        <v>0.77303754266211611</v>
-      </c>
-      <c r="J9" s="24">
+        <v>0.76109215017064846</v>
+      </c>
+      <c r="J9" s="19">
         <f t="shared" si="3"/>
-        <v>9.9993284534282453E-2</v>
-      </c>
-      <c r="K9" s="24">
+        <v>0.10039621247733531</v>
+      </c>
+      <c r="K9" s="19">
         <f>SUM(J4:J9)</f>
-        <v>0.59660197434692086</v>
-      </c>
-      <c r="L9" s="25">
+        <v>0.59683701564703517</v>
+      </c>
+      <c r="L9" s="20">
         <f t="shared" si="4"/>
-        <v>0.17643556831519525</v>
-      </c>
-      <c r="O9" s="20">
+        <v>0.16425513452361329</v>
+      </c>
+      <c r="O9" s="16">
         <v>0.6</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="18">
         <f t="shared" si="5"/>
-        <v>1.2883959044368603</v>
+        <v>1.2684869169510808</v>
       </c>
       <c r="Q9" s="3">
         <v>1</v>
@@ -15312,51 +15392,51 @@
         <v>4</v>
       </c>
       <c r="B10" s="3">
-        <v>0.42215165813449601</v>
+        <v>0.42255926518304499</v>
       </c>
       <c r="C10" s="3">
-        <v>0.450221413517439</v>
+        <v>0.45024966782933401</v>
       </c>
       <c r="D10" s="3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="F10" s="3">
         <v>3036</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="19">
         <f t="shared" si="1"/>
-        <v>1.3504611330698288E-2</v>
-      </c>
-      <c r="H10" s="24">
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="H10" s="19">
         <f t="shared" si="2"/>
-        <v>6.9965870307167236E-2</v>
-      </c>
-      <c r="I10" s="24">
+        <v>7.5085324232081918E-2</v>
+      </c>
+      <c r="I10" s="19">
         <f>SUM(H4:H10)</f>
-        <v>0.84300341296928338</v>
-      </c>
-      <c r="J10" s="24">
+        <v>0.83617747440273038</v>
+      </c>
+      <c r="J10" s="19">
         <f t="shared" si="3"/>
-        <v>0.10056409912027399</v>
-      </c>
-      <c r="K10" s="24">
+        <v>0.10046336713451078</v>
+      </c>
+      <c r="K10" s="19">
         <f>SUM(J4:J10)</f>
-        <v>0.69716607346719484</v>
-      </c>
-      <c r="L10" s="25">
+        <v>0.69730038278154594</v>
+      </c>
+      <c r="L10" s="20">
         <f t="shared" si="4"/>
-        <v>0.14583733950208855</v>
-      </c>
-      <c r="O10" s="20">
+        <v>0.13887709162118445</v>
+      </c>
+      <c r="O10" s="16">
         <v>0.7</v>
       </c>
-      <c r="P10" s="22">
+      <c r="P10" s="18">
         <f t="shared" si="5"/>
-        <v>1.2042905899561192</v>
+        <v>1.1945392491467577</v>
       </c>
       <c r="Q10" s="3">
         <v>1</v>
@@ -15367,51 +15447,51 @@
         <v>3</v>
       </c>
       <c r="B11" s="3">
-        <v>0.38894748958841302</v>
+        <v>0.38941783151326897</v>
       </c>
       <c r="C11" s="3">
-        <v>0.42213507464830102</v>
+        <v>0.42253449082906602</v>
       </c>
       <c r="D11" s="3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="F11" s="3">
         <v>3037</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="19">
         <f t="shared" si="1"/>
-        <v>1.1195258478761936E-2</v>
-      </c>
-      <c r="H11" s="24">
+        <v>1.1853803095159697E-2</v>
+      </c>
+      <c r="H11" s="19">
         <f t="shared" si="2"/>
-        <v>5.8020477815699661E-2</v>
-      </c>
-      <c r="I11" s="24">
+        <v>6.1433447098976107E-2</v>
+      </c>
+      <c r="I11" s="19">
         <f>SUM(H4:H11)</f>
-        <v>0.90102389078498302</v>
-      </c>
-      <c r="J11" s="24">
+        <v>0.89761092150170652</v>
+      </c>
+      <c r="J11" s="19">
         <f t="shared" si="3"/>
-        <v>0.1008327177489759</v>
-      </c>
-      <c r="K11" s="24">
+        <v>0.10076556309180042</v>
+      </c>
+      <c r="K11" s="19">
         <f>SUM(J4:J11)</f>
-        <v>0.79799879121617079</v>
-      </c>
-      <c r="L11" s="25">
+        <v>0.79806594587334634</v>
+      </c>
+      <c r="L11" s="20">
         <f t="shared" si="4"/>
-        <v>0.10302509956881223</v>
-      </c>
-      <c r="O11" s="20">
+        <v>9.9544975628360177E-2</v>
+      </c>
+      <c r="O11" s="16">
         <v>0.8</v>
       </c>
-      <c r="P11" s="22">
+      <c r="P11" s="18">
         <f t="shared" si="5"/>
-        <v>1.1262798634812288</v>
+        <v>1.1220136518771331</v>
       </c>
       <c r="Q11" s="3">
         <v>1</v>
@@ -15422,49 +15502,49 @@
         <v>2</v>
       </c>
       <c r="B12" s="3">
-        <v>0.34367858035877902</v>
+        <v>0.34419221307221998</v>
       </c>
       <c r="C12" s="3">
-        <v>0.388916888135456</v>
+        <v>0.389408761136463</v>
       </c>
       <c r="D12" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="0"/>
-        <v>2999</v>
+        <v>2997</v>
       </c>
       <c r="F12" s="3">
         <v>3037</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="19">
         <f t="shared" si="1"/>
-        <v>1.2512347711557459E-2</v>
-      </c>
-      <c r="H12" s="24">
+        <v>1.3170892327955219E-2</v>
+      </c>
+      <c r="H12" s="19">
         <f t="shared" si="2"/>
-        <v>6.4846416382252553E-2</v>
-      </c>
-      <c r="I12" s="24">
+        <v>6.8259385665529013E-2</v>
+      </c>
+      <c r="I12" s="19">
         <f>SUM(H4:H12)</f>
         <v>0.96587030716723554</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="19">
         <f t="shared" si="3"/>
-        <v>0.10069840843462494</v>
-      </c>
-      <c r="K12" s="24">
+        <v>0.10063125377744947</v>
+      </c>
+      <c r="K12" s="19">
         <f>SUM(J4:J12)</f>
         <v>0.89869719965079575</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="20">
         <f t="shared" si="4"/>
         <v>6.7173107516439789E-2</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="16">
         <v>0.9</v>
       </c>
-      <c r="P12" s="22">
+      <c r="P12" s="18">
         <f t="shared" si="5"/>
         <v>1.0731892301858172</v>
       </c>
@@ -15477,10 +15557,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>4.5059610239235902E-2</v>
+        <v>4.89413555549809E-2</v>
       </c>
       <c r="C13" s="3">
-        <v>0.343677067503454</v>
+        <v>0.34416599547725502</v>
       </c>
       <c r="D13" s="3">
         <v>20</v>
@@ -15492,34 +15572,34 @@
       <c r="F13" s="3">
         <v>3037</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="19">
         <f t="shared" si="1"/>
         <v>6.5854461639776093E-3</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="19">
         <f t="shared" si="2"/>
         <v>3.4129692832764506E-2</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="19">
         <f>SUM(H4:H13)</f>
         <v>1</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="19">
         <f t="shared" si="3"/>
         <v>0.10130280034920422</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="19">
         <f>SUM(J4:J13)</f>
         <v>1</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O13" s="20">
-        <v>1</v>
-      </c>
-      <c r="P13" s="22">
+      <c r="O13" s="16">
+        <v>1</v>
+      </c>
+      <c r="P13" s="18">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -15548,80 +15628,80 @@
       <c r="L14" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
+      <c r="A16" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:17" ht="36.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="O18" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="P18" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q18" s="19" t="s">
-        <v>205</v>
+      <c r="A18" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q18" s="15" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -15629,51 +15709,51 @@
         <v>10</v>
       </c>
       <c r="B19" s="3">
-        <v>0.63172745339960601</v>
+        <v>0.63073995424222495</v>
       </c>
       <c r="C19" s="3">
-        <v>0.84585716951283896</v>
+        <v>0.84586173924614505</v>
       </c>
       <c r="D19" s="3">
-        <v>2568</v>
+        <v>2589</v>
       </c>
       <c r="E19" s="3">
         <f>F19-D19</f>
-        <v>1327</v>
+        <v>1306</v>
       </c>
       <c r="F19" s="3">
         <v>3895</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="19">
         <f>D19/F19</f>
-        <v>0.65930680359435179</v>
-      </c>
-      <c r="H19" s="24">
+        <v>0.66469833119383825</v>
+      </c>
+      <c r="H19" s="19">
         <f>D19/$D$29</f>
-        <v>0.13238478193628209</v>
-      </c>
-      <c r="I19" s="24">
+        <v>0.1334673677698732</v>
+      </c>
+      <c r="I19" s="19">
         <f>SUM(H19)</f>
-        <v>0.13238478193628209</v>
-      </c>
-      <c r="J19" s="24">
+        <v>0.1334673677698732</v>
+      </c>
+      <c r="J19" s="19">
         <f>E19/$E$29</f>
-        <v>6.7901550427262952E-2</v>
-      </c>
-      <c r="K19" s="24">
+        <v>6.6826996878677783E-2</v>
+      </c>
+      <c r="K19" s="19">
         <f>SUM(J19)</f>
-        <v>6.7901550427262952E-2</v>
-      </c>
-      <c r="L19" s="25">
+        <v>6.6826996878677783E-2</v>
+      </c>
+      <c r="L19" s="20">
         <f>I19-K19</f>
-        <v>6.4483231509019134E-2</v>
-      </c>
-      <c r="O19" s="20">
+        <v>6.6640370891195413E-2</v>
+      </c>
+      <c r="O19" s="16">
         <v>0.1</v>
       </c>
-      <c r="P19" s="22">
+      <c r="P19" s="18">
         <f>I19/O19</f>
-        <v>1.3238478193628207</v>
+        <v>1.3346736776987318</v>
       </c>
       <c r="Q19" s="3">
         <v>1</v>
@@ -15684,51 +15764,51 @@
         <v>9</v>
       </c>
       <c r="B20" s="3">
-        <v>0.58890868603402902</v>
+        <v>0.58828698834711401</v>
       </c>
       <c r="C20" s="3">
-        <v>0.63172446896876899</v>
+        <v>0.63073206243118896</v>
       </c>
       <c r="D20" s="3">
-        <v>2405</v>
+        <v>2363</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" ref="E20:E28" si="6">F20-D20</f>
-        <v>1489</v>
+        <v>1531</v>
       </c>
       <c r="F20" s="3">
         <v>3894</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="19">
         <f t="shared" ref="G20:G28" si="7">D20/F20</f>
-        <v>0.61761684643040571</v>
-      </c>
-      <c r="H20" s="24">
+        <v>0.60683102208525941</v>
+      </c>
+      <c r="H20" s="19">
         <f t="shared" ref="H20:H28" si="8">D20/$D$29</f>
-        <v>0.12398185379936076</v>
-      </c>
-      <c r="I20" s="24">
+        <v>0.12181668213217857</v>
+      </c>
+      <c r="I20" s="19">
         <f>SUM(H19:H20)</f>
-        <v>0.25636663573564283</v>
-      </c>
-      <c r="J20" s="24">
+        <v>0.25528404990205178</v>
+      </c>
+      <c r="J20" s="19">
         <f t="shared" ref="J20:J27" si="9">E20/$E$29</f>
-        <v>7.6190963516348562E-2</v>
-      </c>
-      <c r="K20" s="24">
+        <v>7.83400706135189E-2</v>
+      </c>
+      <c r="K20" s="19">
         <f>SUM(J19:J20)</f>
-        <v>0.1440925139436115</v>
-      </c>
-      <c r="L20" s="25">
+        <v>0.14516706749219668</v>
+      </c>
+      <c r="L20" s="20">
         <f t="shared" ref="L20:L28" si="10">I20-K20</f>
-        <v>0.11227412179203133</v>
-      </c>
-      <c r="O20" s="20">
+        <v>0.1101169824098551</v>
+      </c>
+      <c r="O20" s="16">
         <v>0.2</v>
       </c>
-      <c r="P20" s="22">
+      <c r="P20" s="18">
         <f t="shared" ref="P20:P28" si="11">I20/O20</f>
-        <v>1.281833178678214</v>
+        <v>1.2764202495102588</v>
       </c>
       <c r="Q20" s="3">
         <v>1</v>
@@ -15739,106 +15819,106 @@
         <v>8</v>
       </c>
       <c r="B21" s="3">
-        <v>0.55627162589366497</v>
+        <v>0.55608011473531804</v>
       </c>
       <c r="C21" s="3">
-        <v>0.58889930566909598</v>
+        <v>0.588284704618661</v>
       </c>
       <c r="D21" s="3">
-        <v>2258</v>
+        <v>2246</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="6"/>
-        <v>1636</v>
+        <v>1648</v>
       </c>
       <c r="F21" s="3">
         <v>3894</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="19">
         <f t="shared" si="7"/>
-        <v>0.57986646122239338</v>
-      </c>
-      <c r="H21" s="24">
+        <v>0.57678479712378017</v>
+      </c>
+      <c r="H21" s="19">
         <f t="shared" si="8"/>
-        <v>0.11640375296422312</v>
-      </c>
-      <c r="I21" s="24">
+        <v>0.11578513248788534</v>
+      </c>
+      <c r="I21" s="19">
         <f>SUM(H19:H21)</f>
-        <v>0.37277038869986595</v>
-      </c>
-      <c r="J21" s="24">
+        <v>0.37106918238993714</v>
+      </c>
+      <c r="J21" s="19">
         <f t="shared" si="9"/>
-        <v>8.371283835644476E-2</v>
-      </c>
-      <c r="K21" s="24">
+        <v>8.4326868955636292E-2</v>
+      </c>
+      <c r="K21" s="19">
         <f>SUM(J19:J21)</f>
-        <v>0.22780535230005627</v>
-      </c>
-      <c r="L21" s="25">
+        <v>0.22949393644783297</v>
+      </c>
+      <c r="L21" s="20">
         <f t="shared" si="10"/>
-        <v>0.14496503639980968</v>
-      </c>
-      <c r="O21" s="20">
+        <v>0.14157524594210416</v>
+      </c>
+      <c r="O21" s="16">
         <v>0.3</v>
       </c>
-      <c r="P21" s="22">
+      <c r="P21" s="18">
         <f t="shared" si="11"/>
-        <v>1.2425679623328865</v>
+        <v>1.2368972746331239</v>
       </c>
       <c r="Q21" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="28">
+      <c r="A22" s="23">
         <v>7</v>
       </c>
-      <c r="B22" s="28">
-        <v>0.52813622418622397</v>
-      </c>
-      <c r="C22" s="28">
-        <v>0.55626642362054801</v>
-      </c>
-      <c r="D22" s="28">
-        <v>2124</v>
-      </c>
-      <c r="E22" s="28">
+      <c r="B22" s="3">
+        <v>0.52782743267744603</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.55605905971403002</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2148</v>
+      </c>
+      <c r="E22" s="23">
         <f t="shared" si="6"/>
-        <v>1770</v>
-      </c>
-      <c r="F22" s="28">
+        <v>1746</v>
+      </c>
+      <c r="F22" s="3">
         <v>3894</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="24">
         <f t="shared" si="7"/>
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="H22" s="29">
+        <v>0.55161787365177195</v>
+      </c>
+      <c r="H22" s="24">
         <f t="shared" si="8"/>
-        <v>0.10949582431178471</v>
-      </c>
-      <c r="I22" s="29">
+        <v>0.11073306526446025</v>
+      </c>
+      <c r="I22" s="24">
         <f>SUM(H19:H22)</f>
-        <v>0.48226621301165068</v>
-      </c>
-      <c r="J22" s="29">
+        <v>0.48180224765439739</v>
+      </c>
+      <c r="J22" s="24">
         <f t="shared" si="9"/>
-        <v>9.0569513380750144E-2</v>
-      </c>
-      <c r="K22" s="29">
+        <v>8.9341452182367082E-2</v>
+      </c>
+      <c r="K22" s="24">
         <f>SUM(J19:J22)</f>
-        <v>0.31837486568080642</v>
-      </c>
-      <c r="L22" s="30">
+        <v>0.31883538863020006</v>
+      </c>
+      <c r="L22" s="25">
         <f t="shared" si="10"/>
-        <v>0.16389134733084426</v>
-      </c>
-      <c r="O22" s="20">
+        <v>0.16296685902419733</v>
+      </c>
+      <c r="O22" s="16">
         <v>0.4</v>
       </c>
-      <c r="P22" s="22">
+      <c r="P22" s="18">
         <f t="shared" si="11"/>
-        <v>1.2056655325291266</v>
+        <v>1.2045056191359933</v>
       </c>
       <c r="Q22" s="3">
         <v>1</v>
@@ -15849,51 +15929,51 @@
         <v>6</v>
       </c>
       <c r="B23" s="4">
-        <v>0.50039021615525803</v>
+        <v>0.50048566015568996</v>
       </c>
       <c r="C23" s="4">
-        <v>0.52812888518119305</v>
+        <v>0.52782332185334502</v>
       </c>
       <c r="D23" s="4">
-        <v>2053</v>
+        <v>2037</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="6"/>
-        <v>1841</v>
+        <v>1857</v>
       </c>
       <c r="F23" s="4">
         <v>3894</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="21">
         <f t="shared" si="7"/>
-        <v>0.52722136620441706</v>
-      </c>
-      <c r="H23" s="26">
+        <v>0.52311248073959937</v>
+      </c>
+      <c r="H23" s="21">
         <f t="shared" si="8"/>
-        <v>0.1058356531601196</v>
-      </c>
-      <c r="I23" s="26">
+        <v>0.1050108258583359</v>
+      </c>
+      <c r="I23" s="21">
         <f>SUM(H19:H23)</f>
-        <v>0.58810186617177029</v>
-      </c>
-      <c r="J23" s="26">
+        <v>0.58681307351273326</v>
+      </c>
+      <c r="J23" s="21">
         <f t="shared" si="9"/>
-        <v>9.4202527759300006E-2</v>
-      </c>
-      <c r="K23" s="26">
+        <v>9.50212352248887E-2</v>
+      </c>
+      <c r="K23" s="21">
         <f>SUM(J19:J23)</f>
-        <v>0.41257739344010641</v>
-      </c>
-      <c r="L23" s="27">
+        <v>0.41385662385508876</v>
+      </c>
+      <c r="L23" s="22">
         <f t="shared" si="10"/>
-        <v>0.17552447273166388</v>
-      </c>
-      <c r="O23" s="20">
+        <v>0.17295644965764451</v>
+      </c>
+      <c r="O23" s="16">
         <v>0.5</v>
       </c>
-      <c r="P23" s="22">
+      <c r="P23" s="18">
         <f t="shared" si="11"/>
-        <v>1.1762037323435406</v>
+        <v>1.1736261470254665</v>
       </c>
       <c r="Q23" s="3">
         <v>1</v>
@@ -15904,51 +15984,51 @@
         <v>5</v>
       </c>
       <c r="B24" s="3">
-        <v>0.473196259177182</v>
+        <v>0.47299935241810998</v>
       </c>
       <c r="C24" s="3">
-        <v>0.50038951068867299</v>
+        <v>0.50047920943854596</v>
       </c>
       <c r="D24" s="3">
-        <v>1933</v>
+        <v>1949</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="6"/>
-        <v>1961</v>
+        <v>1945</v>
       </c>
       <c r="F24" s="3">
         <v>3894</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="19">
         <f t="shared" si="7"/>
-        <v>0.49640472521828455</v>
-      </c>
-      <c r="H24" s="24">
+        <v>0.50051361068310218</v>
+      </c>
+      <c r="H24" s="19">
         <f t="shared" si="8"/>
-        <v>9.9649448396741933E-2</v>
-      </c>
-      <c r="I24" s="24">
+        <v>0.10047427569852563</v>
+      </c>
+      <c r="I24" s="19">
         <f>SUM(H19:H24)</f>
-        <v>0.68775131456851224</v>
-      </c>
-      <c r="J24" s="24">
+        <v>0.68728734921125889</v>
+      </c>
+      <c r="J24" s="19">
         <f t="shared" si="9"/>
-        <v>0.10034283375121526</v>
-      </c>
-      <c r="K24" s="24">
+        <v>9.9524126285626568E-2</v>
+      </c>
+      <c r="K24" s="19">
         <f>SUM(J19:J24)</f>
-        <v>0.51292022719132169</v>
-      </c>
-      <c r="L24" s="25">
+        <v>0.51338075014071527</v>
+      </c>
+      <c r="L24" s="20">
         <f t="shared" si="10"/>
-        <v>0.17483108737719055</v>
-      </c>
-      <c r="O24" s="20">
+        <v>0.17390659907054362</v>
+      </c>
+      <c r="O24" s="16">
         <v>0.6</v>
       </c>
-      <c r="P24" s="22">
+      <c r="P24" s="18">
         <f t="shared" si="11"/>
-        <v>1.1462521909475205</v>
+        <v>1.1454789153520981</v>
       </c>
       <c r="Q24" s="3">
         <v>1</v>
@@ -15959,51 +16039,51 @@
         <v>4</v>
       </c>
       <c r="B25" s="3">
-        <v>0.443553539905366</v>
+        <v>0.44403423403956599</v>
       </c>
       <c r="C25" s="3">
-        <v>0.47317221828393502</v>
+        <v>0.47299078445592901</v>
       </c>
       <c r="D25" s="3">
-        <v>1802</v>
+        <v>1775</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" si="6"/>
-        <v>2092</v>
+        <v>2119</v>
       </c>
       <c r="F25" s="3">
         <v>3894</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="19">
         <f t="shared" si="7"/>
-        <v>0.46276322547508986</v>
-      </c>
-      <c r="H25" s="24">
+        <v>0.45582948125321004</v>
+      </c>
+      <c r="H25" s="19">
         <f t="shared" si="8"/>
-        <v>9.2896174863387984E-2</v>
-      </c>
-      <c r="I25" s="24">
+        <v>9.1504278791628008E-2</v>
+      </c>
+      <c r="I25" s="19">
         <f>SUM(H19:H25)</f>
-        <v>0.78064748943190021</v>
-      </c>
-      <c r="J25" s="24">
+        <v>0.77879162800288693</v>
+      </c>
+      <c r="J25" s="19">
         <f t="shared" si="9"/>
-        <v>0.10704600112572277</v>
-      </c>
-      <c r="K25" s="24">
+        <v>0.1084275699739037</v>
+      </c>
+      <c r="K25" s="19">
         <f>SUM(J19:J25)</f>
-        <v>0.6199662283170444</v>
-      </c>
-      <c r="L25" s="25">
+        <v>0.62180832011461895</v>
+      </c>
+      <c r="L25" s="20">
         <f t="shared" si="10"/>
-        <v>0.16068126111485581</v>
-      </c>
-      <c r="O25" s="20">
+        <v>0.15698330788826798</v>
+      </c>
+      <c r="O25" s="16">
         <v>0.7</v>
       </c>
-      <c r="P25" s="22">
+      <c r="P25" s="18">
         <f t="shared" si="11"/>
-        <v>1.115210699188429</v>
+        <v>1.1125594685755529</v>
       </c>
       <c r="Q25" s="3">
         <v>1</v>
@@ -16014,51 +16094,51 @@
         <v>3</v>
       </c>
       <c r="B26" s="3">
-        <v>0.40909218656280699</v>
+        <v>0.40917219624472301</v>
       </c>
       <c r="C26" s="3">
-        <v>0.44354062840331498</v>
+        <v>0.444026294656788</v>
       </c>
       <c r="D26" s="3">
-        <v>1622</v>
+        <v>1638</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="6"/>
-        <v>2272</v>
+        <v>2256</v>
       </c>
       <c r="F26" s="3">
         <v>3894</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="19">
         <f t="shared" si="7"/>
-        <v>0.41653826399589111</v>
-      </c>
-      <c r="H26" s="24">
+        <v>0.4206471494607088</v>
+      </c>
+      <c r="H26" s="19">
         <f t="shared" si="8"/>
-        <v>8.3616867718321483E-2</v>
-      </c>
-      <c r="I26" s="24">
+        <v>8.4441695020105165E-2</v>
+      </c>
+      <c r="I26" s="19">
         <f>SUM(H19:H26)</f>
-        <v>0.86426435715022165</v>
-      </c>
-      <c r="J26" s="24">
+        <v>0.86323332302299205</v>
+      </c>
+      <c r="J26" s="19">
         <f t="shared" si="9"/>
-        <v>0.11625646011359567</v>
-      </c>
-      <c r="K26" s="24">
+        <v>0.11543775264800696</v>
+      </c>
+      <c r="K26" s="19">
         <f>SUM(J19:J26)</f>
-        <v>0.73622268843064009</v>
-      </c>
-      <c r="L26" s="25">
+        <v>0.73724607276262588</v>
+      </c>
+      <c r="L26" s="20">
         <f t="shared" si="10"/>
-        <v>0.12804166871958156</v>
-      </c>
-      <c r="O26" s="20">
+        <v>0.12598725026036617</v>
+      </c>
+      <c r="O26" s="16">
         <v>0.8</v>
       </c>
-      <c r="P26" s="22">
+      <c r="P26" s="18">
         <f t="shared" si="11"/>
-        <v>1.080330446437777</v>
+        <v>1.07904165377874</v>
       </c>
       <c r="Q26" s="3">
         <v>1</v>
@@ -16069,51 +16149,51 @@
         <v>2</v>
       </c>
       <c r="B27" s="3">
-        <v>0.36132715629597001</v>
+        <v>0.361699988913602</v>
       </c>
       <c r="C27" s="3">
-        <v>0.40908877691580797</v>
+        <v>0.409168543878769</v>
       </c>
       <c r="D27" s="3">
-        <v>1439</v>
+        <v>1443</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="6"/>
-        <v>2455</v>
+        <v>2451</v>
       </c>
       <c r="F27" s="3">
         <v>3894</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="19">
         <f t="shared" si="7"/>
-        <v>0.36954288649203904</v>
-      </c>
-      <c r="H27" s="24">
+        <v>0.37057010785824346</v>
+      </c>
+      <c r="H27" s="19">
         <f t="shared" si="8"/>
-        <v>7.4182905454170528E-2</v>
-      </c>
-      <c r="I27" s="24">
+        <v>7.4389112279616462E-2</v>
+      </c>
+      <c r="I27" s="19">
         <f>SUM(H19:H27)</f>
-        <v>0.93844726260439215</v>
-      </c>
-      <c r="J27" s="24">
+        <v>0.93762243530260847</v>
+      </c>
+      <c r="J27" s="19">
         <f t="shared" si="9"/>
-        <v>0.12562042675126645</v>
-      </c>
-      <c r="K27" s="24">
+        <v>0.12541574988486925</v>
+      </c>
+      <c r="K27" s="19">
         <f>SUM(J19:J27)</f>
-        <v>0.86184311518190659</v>
-      </c>
-      <c r="L27" s="25">
+        <v>0.86266182264749514</v>
+      </c>
+      <c r="L27" s="20">
         <f t="shared" si="10"/>
-        <v>7.6604147422485558E-2</v>
-      </c>
-      <c r="O27" s="20">
+        <v>7.4960612655113334E-2</v>
+      </c>
+      <c r="O27" s="16">
         <v>0.9</v>
       </c>
-      <c r="P27" s="22">
+      <c r="P27" s="18">
         <f t="shared" si="11"/>
-        <v>1.0427191806715468</v>
+        <v>1.0418027058917871</v>
       </c>
       <c r="Q27" s="3">
         <v>1</v>
@@ -16124,49 +16204,49 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>6.8054336891944997E-2</v>
+        <v>7.2852899293618295E-2</v>
       </c>
       <c r="C28" s="3">
-        <v>0.36130901562825801</v>
+        <v>0.361681265445706</v>
       </c>
       <c r="D28" s="3">
-        <v>1194</v>
+        <v>1210</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" si="6"/>
-        <v>2700</v>
+        <v>2684</v>
       </c>
       <c r="F28" s="3">
         <v>3894</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="19">
         <f t="shared" si="7"/>
-        <v>0.30662557781201849</v>
-      </c>
-      <c r="H28" s="24">
+        <v>0.31073446327683618</v>
+      </c>
+      <c r="H28" s="19">
         <f t="shared" si="8"/>
-        <v>6.1552737395607793E-2</v>
-      </c>
-      <c r="I28" s="24">
+        <v>6.2377564697391481E-2</v>
+      </c>
+      <c r="I28" s="19">
         <f>SUM(H19:H28)</f>
         <v>1</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="19">
         <f>E28/$E$29</f>
-        <v>0.13815688481809343</v>
-      </c>
-      <c r="K28" s="24">
+        <v>0.13733817735250473</v>
+      </c>
+      <c r="K28" s="19">
         <f>SUM(J19:J28)</f>
-        <v>1</v>
-      </c>
-      <c r="L28" s="25">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="L28" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O28" s="20">
-        <v>1</v>
-      </c>
-      <c r="P28" s="22">
+      <c r="O28" s="16">
+        <v>1</v>
+      </c>
+      <c r="P28" s="18">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
@@ -16215,35 +16295,35 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="F1" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="G1" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="P1" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="Q1" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
+      <c r="A2" s="13">
         <v>0.19283276450511946</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="13">
         <v>0.13238478193628209</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="13">
         <v>3.7207770826473495E-2</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="13">
         <v>0.65930680359435179</v>
       </c>
       <c r="P2">
@@ -16254,16 +16334,16 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
+      <c r="A3" s="13">
         <v>0.34812286689419797</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="13">
         <v>0.25636663573564283</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="13">
         <v>2.9963780046098124E-2</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="13">
         <v>0.61761684643040571</v>
       </c>
       <c r="P3">
@@ -16274,16 +16354,16 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+      <c r="A4" s="13">
         <v>0.47781569965870307</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="13">
         <v>0.37277038869986595</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="13">
         <v>2.5024695423114918E-2</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="13">
         <v>0.57986646122239338</v>
       </c>
       <c r="P4">
@@ -16294,16 +16374,16 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+      <c r="A5" s="13">
         <v>0.58361774744027306</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="13">
         <v>0.48226621301165068</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="13">
         <v>2.0421607378129116E-2</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="13">
         <v>0.54545454545454541</v>
       </c>
       <c r="P5">
@@ -16314,16 +16394,16 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="A6" s="13">
         <v>0.67235494880546076</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="13">
         <v>0.58810186617177029</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="13">
         <v>1.7122160026341784E-2</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="13">
         <v>0.52722136620441706</v>
       </c>
       <c r="P6">
@@ -16334,16 +16414,16 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+      <c r="A7" s="13">
         <v>0.77303754266211611</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="13">
         <v>0.68775131456851224</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="13">
         <v>1.9427066183733948E-2</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="13">
         <v>0.49640472521828455</v>
       </c>
       <c r="P7">
@@ -16354,16 +16434,16 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+      <c r="A8" s="13">
         <v>0.84300341296928338</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="13">
         <v>0.78064748943190021</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="13">
         <v>1.3504611330698288E-2</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="13">
         <v>0.46276322547508986</v>
       </c>
       <c r="P8">
@@ -16374,16 +16454,16 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+      <c r="A9" s="13">
         <v>0.90102389078498302</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="13">
         <v>0.86426435715022165</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="13">
         <v>1.1195258478761936E-2</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="13">
         <v>0.41653826399589111</v>
       </c>
       <c r="P9">
@@ -16394,16 +16474,16 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+      <c r="A10" s="13">
         <v>0.96587030716723554</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="13">
         <v>0.93844726260439215</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="13">
         <v>1.2512347711557459E-2</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="13">
         <v>0.36954288649203904</v>
       </c>
       <c r="P10">
@@ -16414,16 +16494,16 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
-        <v>1</v>
-      </c>
-      <c r="B11" s="17">
-        <v>1</v>
-      </c>
-      <c r="F11" s="17">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13">
         <v>6.5854461639776093E-3</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="13">
         <v>0.30662557781201849</v>
       </c>
       <c r="P11">
